--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujun\Desktop\URWPGSim2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujun\Desktop\URWPGSim2D\URWPGSim2D\Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="山字点与方向" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="动态圆的if判断 " sheetId="11" r:id="rId8"/>
     <sheet name="黄鱼互动的if判断 " sheetId="10" r:id="rId9"/>
     <sheet name="PoseToPose" sheetId="6" r:id="rId10"/>
+    <sheet name="fishToPoint" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="527">
   <si>
     <t>xna.Vector3</t>
   </si>
@@ -1664,6 +1665,73 @@
   </si>
   <si>
     <t xml:space="preserve"> 10f, 200f, msPerCycle,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fishToPoint(ref decisions[1], </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hill21,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, ref timeForPoseToPose,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hillflag);</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[2],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[3],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[4],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[5],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[6],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[7],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[8],</t>
+  </si>
+  <si>
+    <t>fishToPoint(ref decisions[9],</t>
+  </si>
+  <si>
+    <t>3, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>4, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>5, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>6, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>7, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>8, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>9, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>10, ref timeForPoseToPose,</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A98" sqref="A98:H105"/>
     </sheetView>
   </sheetViews>
@@ -5057,6 +5125,207 @@
       </c>
       <c r="H114" t="s">
         <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F9" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="530">
   <si>
     <t>xna.Vector3</t>
   </si>
@@ -1732,6 +1732,18 @@
   </si>
   <si>
     <t>10, ref timeForPoseToPose,</t>
+  </si>
+  <si>
+    <t>oneflag);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playflag);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circleflag);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2510,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:H105"/>
+    <sheetView topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5136,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F100" sqref="A93:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5326,6 +5338,1786 @@
       </c>
       <c r="F9" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>525</v>
+      </c>
+      <c r="F18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" t="s">
+        <v>526</v>
+      </c>
+      <c r="F19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" t="s">
+        <v>522</v>
+      </c>
+      <c r="F24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" t="s">
+        <v>523</v>
+      </c>
+      <c r="F25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" t="s">
+        <v>524</v>
+      </c>
+      <c r="F26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" t="s">
+        <v>526</v>
+      </c>
+      <c r="F28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" t="s">
+        <v>519</v>
+      </c>
+      <c r="F30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>512</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" t="s">
+        <v>470</v>
+      </c>
+      <c r="E31" t="s">
+        <v>520</v>
+      </c>
+      <c r="F31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>513</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" t="s">
+        <v>472</v>
+      </c>
+      <c r="E32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" t="s">
+        <v>474</v>
+      </c>
+      <c r="E33" t="s">
+        <v>522</v>
+      </c>
+      <c r="F33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>515</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34" t="s">
+        <v>523</v>
+      </c>
+      <c r="F34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>516</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D35" t="s">
+        <v>478</v>
+      </c>
+      <c r="E35" t="s">
+        <v>524</v>
+      </c>
+      <c r="F35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>479</v>
+      </c>
+      <c r="D36" t="s">
+        <v>480</v>
+      </c>
+      <c r="E36" t="s">
+        <v>525</v>
+      </c>
+      <c r="F36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>481</v>
+      </c>
+      <c r="D39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" t="s">
+        <v>519</v>
+      </c>
+      <c r="F39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>512</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40" t="s">
+        <v>520</v>
+      </c>
+      <c r="F40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>513</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" t="s">
+        <v>521</v>
+      </c>
+      <c r="F41" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>514</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" t="s">
+        <v>472</v>
+      </c>
+      <c r="E42" t="s">
+        <v>522</v>
+      </c>
+      <c r="F42" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" t="s">
+        <v>474</v>
+      </c>
+      <c r="E43" t="s">
+        <v>523</v>
+      </c>
+      <c r="F43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" t="s">
+        <v>476</v>
+      </c>
+      <c r="E44" t="s">
+        <v>524</v>
+      </c>
+      <c r="F44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>477</v>
+      </c>
+      <c r="D45" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" t="s">
+        <v>525</v>
+      </c>
+      <c r="F45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>479</v>
+      </c>
+      <c r="D46" t="s">
+        <v>480</v>
+      </c>
+      <c r="E46" t="s">
+        <v>526</v>
+      </c>
+      <c r="F46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" t="s">
+        <v>480</v>
+      </c>
+      <c r="E48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
+      <c r="D49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E49" t="s">
+        <v>520</v>
+      </c>
+      <c r="F49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>513</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
+      <c r="D50" t="s">
+        <v>468</v>
+      </c>
+      <c r="E50" t="s">
+        <v>521</v>
+      </c>
+      <c r="F50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>514</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>469</v>
+      </c>
+      <c r="D51" t="s">
+        <v>470</v>
+      </c>
+      <c r="E51" t="s">
+        <v>522</v>
+      </c>
+      <c r="F51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>515</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>471</v>
+      </c>
+      <c r="D52" t="s">
+        <v>472</v>
+      </c>
+      <c r="E52" t="s">
+        <v>523</v>
+      </c>
+      <c r="F52" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>516</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" t="s">
+        <v>474</v>
+      </c>
+      <c r="E53" t="s">
+        <v>524</v>
+      </c>
+      <c r="F53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>517</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" t="s">
+        <v>525</v>
+      </c>
+      <c r="F54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" t="s">
+        <v>478</v>
+      </c>
+      <c r="E55" t="s">
+        <v>526</v>
+      </c>
+      <c r="F55" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>511</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D57" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" t="s">
+        <v>519</v>
+      </c>
+      <c r="F57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>512</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>479</v>
+      </c>
+      <c r="D58" t="s">
+        <v>480</v>
+      </c>
+      <c r="E58" t="s">
+        <v>520</v>
+      </c>
+      <c r="F58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" t="s">
+        <v>482</v>
+      </c>
+      <c r="E59" t="s">
+        <v>521</v>
+      </c>
+      <c r="F59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>514</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>467</v>
+      </c>
+      <c r="D60" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" t="s">
+        <v>522</v>
+      </c>
+      <c r="F60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>515</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" t="s">
+        <v>470</v>
+      </c>
+      <c r="E61" t="s">
+        <v>523</v>
+      </c>
+      <c r="F61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>516</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E62" t="s">
+        <v>524</v>
+      </c>
+      <c r="F62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" t="s">
+        <v>474</v>
+      </c>
+      <c r="E63" t="s">
+        <v>525</v>
+      </c>
+      <c r="F63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" t="s">
+        <v>476</v>
+      </c>
+      <c r="E64" t="s">
+        <v>526</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>511</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>475</v>
+      </c>
+      <c r="D66" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" t="s">
+        <v>519</v>
+      </c>
+      <c r="F66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>512</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>477</v>
+      </c>
+      <c r="D67" t="s">
+        <v>478</v>
+      </c>
+      <c r="E67" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>513</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>479</v>
+      </c>
+      <c r="D68" t="s">
+        <v>480</v>
+      </c>
+      <c r="E68" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>514</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>515</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" t="s">
+        <v>468</v>
+      </c>
+      <c r="E70" t="s">
+        <v>523</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>516</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>469</v>
+      </c>
+      <c r="D71" t="s">
+        <v>470</v>
+      </c>
+      <c r="E71" t="s">
+        <v>524</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>517</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>471</v>
+      </c>
+      <c r="D72" t="s">
+        <v>472</v>
+      </c>
+      <c r="E72" t="s">
+        <v>525</v>
+      </c>
+      <c r="F72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>518</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" t="s">
+        <v>474</v>
+      </c>
+      <c r="E73" t="s">
+        <v>526</v>
+      </c>
+      <c r="F73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>511</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" t="s">
+        <v>474</v>
+      </c>
+      <c r="E75" t="s">
+        <v>519</v>
+      </c>
+      <c r="F75" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>475</v>
+      </c>
+      <c r="D76" t="s">
+        <v>476</v>
+      </c>
+      <c r="E76" t="s">
+        <v>520</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>513</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>477</v>
+      </c>
+      <c r="D77" t="s">
+        <v>478</v>
+      </c>
+      <c r="E77" t="s">
+        <v>521</v>
+      </c>
+      <c r="F77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>514</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>479</v>
+      </c>
+      <c r="D78" t="s">
+        <v>480</v>
+      </c>
+      <c r="E78" t="s">
+        <v>522</v>
+      </c>
+      <c r="F78" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>515</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>481</v>
+      </c>
+      <c r="D79" t="s">
+        <v>482</v>
+      </c>
+      <c r="E79" t="s">
+        <v>523</v>
+      </c>
+      <c r="F79" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
+        <v>468</v>
+      </c>
+      <c r="E80" t="s">
+        <v>524</v>
+      </c>
+      <c r="F80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>517</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>469</v>
+      </c>
+      <c r="D81" t="s">
+        <v>470</v>
+      </c>
+      <c r="E81" t="s">
+        <v>525</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>518</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>471</v>
+      </c>
+      <c r="D82" t="s">
+        <v>472</v>
+      </c>
+      <c r="E82" t="s">
+        <v>526</v>
+      </c>
+      <c r="F82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>511</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" t="s">
+        <v>519</v>
+      </c>
+      <c r="F84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>512</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" t="s">
+        <v>474</v>
+      </c>
+      <c r="E85" t="s">
+        <v>520</v>
+      </c>
+      <c r="F85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>513</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" t="s">
+        <v>476</v>
+      </c>
+      <c r="E86" t="s">
+        <v>521</v>
+      </c>
+      <c r="F86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>514</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" t="s">
+        <v>478</v>
+      </c>
+      <c r="E87" t="s">
+        <v>522</v>
+      </c>
+      <c r="F87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>515</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>479</v>
+      </c>
+      <c r="D88" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" t="s">
+        <v>523</v>
+      </c>
+      <c r="F88" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F89" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>517</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>467</v>
+      </c>
+      <c r="D90" t="s">
+        <v>468</v>
+      </c>
+      <c r="E90" t="s">
+        <v>525</v>
+      </c>
+      <c r="F90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>518</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>469</v>
+      </c>
+      <c r="D91" t="s">
+        <v>470</v>
+      </c>
+      <c r="E91" t="s">
+        <v>526</v>
+      </c>
+      <c r="F91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>511</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>469</v>
+      </c>
+      <c r="D93" t="s">
+        <v>470</v>
+      </c>
+      <c r="E93" t="s">
+        <v>519</v>
+      </c>
+      <c r="F93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>512</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>471</v>
+      </c>
+      <c r="D94" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>520</v>
+      </c>
+      <c r="F94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>513</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" t="s">
+        <v>474</v>
+      </c>
+      <c r="E95" t="s">
+        <v>521</v>
+      </c>
+      <c r="F95" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>514</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>475</v>
+      </c>
+      <c r="D96" t="s">
+        <v>476</v>
+      </c>
+      <c r="E96" t="s">
+        <v>522</v>
+      </c>
+      <c r="F96" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" t="s">
+        <v>478</v>
+      </c>
+      <c r="E97" t="s">
+        <v>523</v>
+      </c>
+      <c r="F97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>516</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>479</v>
+      </c>
+      <c r="D98" t="s">
+        <v>480</v>
+      </c>
+      <c r="E98" t="s">
+        <v>524</v>
+      </c>
+      <c r="F98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>517</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>481</v>
+      </c>
+      <c r="D99" t="s">
+        <v>482</v>
+      </c>
+      <c r="E99" t="s">
+        <v>525</v>
+      </c>
+      <c r="F99" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>518</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>467</v>
+      </c>
+      <c r="D100" t="s">
+        <v>468</v>
+      </c>
+      <c r="E100" t="s">
+        <v>526</v>
+      </c>
+      <c r="F100" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>511</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+      <c r="D102" t="s">
+        <v>468</v>
+      </c>
+      <c r="E102" t="s">
+        <v>519</v>
+      </c>
+      <c r="F102" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>512</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" t="s">
+        <v>470</v>
+      </c>
+      <c r="E103" t="s">
+        <v>520</v>
+      </c>
+      <c r="F103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>513</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" t="s">
+        <v>472</v>
+      </c>
+      <c r="E104" t="s">
+        <v>521</v>
+      </c>
+      <c r="F104" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>514</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
+        <v>473</v>
+      </c>
+      <c r="D105" t="s">
+        <v>474</v>
+      </c>
+      <c r="E105" t="s">
+        <v>522</v>
+      </c>
+      <c r="F105" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>515</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" t="s">
+        <v>476</v>
+      </c>
+      <c r="E106" t="s">
+        <v>523</v>
+      </c>
+      <c r="F106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>516</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>477</v>
+      </c>
+      <c r="D107" t="s">
+        <v>478</v>
+      </c>
+      <c r="E107" t="s">
+        <v>524</v>
+      </c>
+      <c r="F107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>517</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>479</v>
+      </c>
+      <c r="D108" t="s">
+        <v>480</v>
+      </c>
+      <c r="E108" t="s">
+        <v>525</v>
+      </c>
+      <c r="F108" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>518</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" t="s">
+        <v>481</v>
+      </c>
+      <c r="D109" t="s">
+        <v>482</v>
+      </c>
+      <c r="E109" t="s">
+        <v>526</v>
+      </c>
+      <c r="F109" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="起始动作点与方向" sheetId="13" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="1的点和方向" sheetId="2" r:id="rId3"/>
     <sheet name="圆的点和方向" sheetId="8" r:id="rId4"/>
     <sheet name="黄鱼互动点与方向" sheetId="9" r:id="rId5"/>
-    <sheet name="一心互动点与方向 " sheetId="14" r:id="rId6"/>
-    <sheet name="dribble" sheetId="4" r:id="rId7"/>
-    <sheet name="山if判断" sheetId="5" r:id="rId8"/>
-    <sheet name="1的if判断" sheetId="7" r:id="rId9"/>
-    <sheet name="动态圆的if判断 " sheetId="11" r:id="rId10"/>
-    <sheet name="黄鱼互动的if判断 " sheetId="10" r:id="rId11"/>
-    <sheet name="PoseToPose" sheetId="6" r:id="rId12"/>
-    <sheet name="fishToPoint" sheetId="12" r:id="rId13"/>
+    <sheet name="一心点与方向 " sheetId="14" r:id="rId6"/>
+    <sheet name="最后点与方向  " sheetId="15" r:id="rId7"/>
+    <sheet name="dribble" sheetId="4" r:id="rId8"/>
+    <sheet name="山if判断" sheetId="5" r:id="rId9"/>
+    <sheet name="1的if判断" sheetId="7" r:id="rId10"/>
+    <sheet name="动态圆的if判断 " sheetId="11" r:id="rId11"/>
+    <sheet name="黄鱼互动的if判断 " sheetId="10" r:id="rId12"/>
+    <sheet name="PoseToPose" sheetId="6" r:id="rId13"/>
+    <sheet name="fishToPoint" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="651">
   <si>
     <t>xna.Vector3</t>
   </si>
@@ -1950,6 +1951,190 @@
   </si>
   <si>
     <t>oneheart10=</t>
+  </si>
+  <si>
+    <t>oneheart2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OHD2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneHeartflag);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneheart3,</t>
+  </si>
+  <si>
+    <t>OHD3,</t>
+  </si>
+  <si>
+    <t>oneheart4,</t>
+  </si>
+  <si>
+    <t>OHD4,</t>
+  </si>
+  <si>
+    <t>oneheart5,</t>
+  </si>
+  <si>
+    <t>OHD5,</t>
+  </si>
+  <si>
+    <t>oneheart6,</t>
+  </si>
+  <si>
+    <t>OHD6,</t>
+  </si>
+  <si>
+    <t>oneheart7,</t>
+  </si>
+  <si>
+    <t>OHD7,</t>
+  </si>
+  <si>
+    <t>oneheart8,</t>
+  </si>
+  <si>
+    <t>OHD8,</t>
+  </si>
+  <si>
+    <t>oneheart9,</t>
+  </si>
+  <si>
+    <t>OHD9,</t>
+  </si>
+  <si>
+    <t>oneheart10,</t>
+  </si>
+  <si>
+    <t>OHD10,</t>
+  </si>
+  <si>
+    <t>last2=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last3=</t>
+  </si>
+  <si>
+    <t>last4=</t>
+  </si>
+  <si>
+    <t>last5=</t>
+  </si>
+  <si>
+    <t>last6=</t>
+  </si>
+  <si>
+    <t>last7=</t>
+  </si>
+  <si>
+    <t>last8=</t>
+  </si>
+  <si>
+    <t>last9=</t>
+  </si>
+  <si>
+    <t>last10=</t>
+  </si>
+  <si>
+    <t>float LD3=(float)</t>
+  </si>
+  <si>
+    <t>float LD4=(float)</t>
+  </si>
+  <si>
+    <t>float LD5=(float)</t>
+  </si>
+  <si>
+    <t>float LD6=(float)</t>
+  </si>
+  <si>
+    <t>float LD7=(float)</t>
+  </si>
+  <si>
+    <t>float LD8=(float)</t>
+  </si>
+  <si>
+    <t>float LD9=(float)</t>
+  </si>
+  <si>
+    <t>float LD10=(float)</t>
+  </si>
+  <si>
+    <t>float LD2=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last22=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float LD22=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastflag);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last3,</t>
+  </si>
+  <si>
+    <t>LD3,</t>
+  </si>
+  <si>
+    <t>last4,</t>
+  </si>
+  <si>
+    <t>LD4,</t>
+  </si>
+  <si>
+    <t>last5,</t>
+  </si>
+  <si>
+    <t>LD5,</t>
+  </si>
+  <si>
+    <t>last6,</t>
+  </si>
+  <si>
+    <t>LD6,</t>
+  </si>
+  <si>
+    <t>last7,</t>
+  </si>
+  <si>
+    <t>LD7,</t>
+  </si>
+  <si>
+    <t>last8,</t>
+  </si>
+  <si>
+    <t>LD8,</t>
+  </si>
+  <si>
+    <t>last9,</t>
+  </si>
+  <si>
+    <t>LD9,</t>
+  </si>
+  <si>
+    <t>last10,</t>
+  </si>
+  <si>
+    <t>LD10,</t>
   </si>
 </sst>
 </file>
@@ -2692,6 +2877,576 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="J2:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
+        <v>451</v>
+      </c>
+      <c r="L3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>452</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" t="s">
+        <v>453</v>
+      </c>
+      <c r="L5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" t="s">
+        <v>454</v>
+      </c>
+      <c r="L6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="s">
+        <v>456</v>
+      </c>
+      <c r="L8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K9" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L148"/>
   <sheetViews>
     <sheetView topLeftCell="A128" workbookViewId="0">
@@ -6618,7 +7373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -7128,7 +7883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
@@ -9756,12 +10511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F139" sqref="A131:F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11908,6 +12663,366 @@
       </c>
       <c r="F119" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>506</v>
+      </c>
+      <c r="B121" t="s">
+        <v>507</v>
+      </c>
+      <c r="C121" t="s">
+        <v>593</v>
+      </c>
+      <c r="D121" t="s">
+        <v>594</v>
+      </c>
+      <c r="E121" t="s">
+        <v>509</v>
+      </c>
+      <c r="F121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>511</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" t="s">
+        <v>596</v>
+      </c>
+      <c r="D122" t="s">
+        <v>597</v>
+      </c>
+      <c r="E122" t="s">
+        <v>519</v>
+      </c>
+      <c r="F122" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>512</v>
+      </c>
+      <c r="B123" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" t="s">
+        <v>598</v>
+      </c>
+      <c r="D123" t="s">
+        <v>599</v>
+      </c>
+      <c r="E123" t="s">
+        <v>520</v>
+      </c>
+      <c r="F123" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>513</v>
+      </c>
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" t="s">
+        <v>600</v>
+      </c>
+      <c r="D124" t="s">
+        <v>601</v>
+      </c>
+      <c r="E124" t="s">
+        <v>521</v>
+      </c>
+      <c r="F124" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>514</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" t="s">
+        <v>602</v>
+      </c>
+      <c r="D125" t="s">
+        <v>603</v>
+      </c>
+      <c r="E125" t="s">
+        <v>522</v>
+      </c>
+      <c r="F125" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>515</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>604</v>
+      </c>
+      <c r="D126" t="s">
+        <v>605</v>
+      </c>
+      <c r="E126" t="s">
+        <v>523</v>
+      </c>
+      <c r="F126" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>516</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>606</v>
+      </c>
+      <c r="D127" t="s">
+        <v>607</v>
+      </c>
+      <c r="E127" t="s">
+        <v>524</v>
+      </c>
+      <c r="F127" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>517</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>608</v>
+      </c>
+      <c r="D128" t="s">
+        <v>609</v>
+      </c>
+      <c r="E128" t="s">
+        <v>525</v>
+      </c>
+      <c r="F128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>518</v>
+      </c>
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" t="s">
+        <v>610</v>
+      </c>
+      <c r="D129" t="s">
+        <v>611</v>
+      </c>
+      <c r="E129" t="s">
+        <v>526</v>
+      </c>
+      <c r="F129" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>506</v>
+      </c>
+      <c r="B131" t="s">
+        <v>507</v>
+      </c>
+      <c r="C131" t="s">
+        <v>632</v>
+      </c>
+      <c r="D131" t="s">
+        <v>633</v>
+      </c>
+      <c r="E131" t="s">
+        <v>509</v>
+      </c>
+      <c r="F131" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>511</v>
+      </c>
+      <c r="B132" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" t="s">
+        <v>635</v>
+      </c>
+      <c r="D132" t="s">
+        <v>636</v>
+      </c>
+      <c r="E132" t="s">
+        <v>519</v>
+      </c>
+      <c r="F132" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>512</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="s">
+        <v>637</v>
+      </c>
+      <c r="D133" t="s">
+        <v>638</v>
+      </c>
+      <c r="E133" t="s">
+        <v>520</v>
+      </c>
+      <c r="F133" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>513</v>
+      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" t="s">
+        <v>639</v>
+      </c>
+      <c r="D134" t="s">
+        <v>640</v>
+      </c>
+      <c r="E134" t="s">
+        <v>521</v>
+      </c>
+      <c r="F134" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>514</v>
+      </c>
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" t="s">
+        <v>641</v>
+      </c>
+      <c r="D135" t="s">
+        <v>642</v>
+      </c>
+      <c r="E135" t="s">
+        <v>522</v>
+      </c>
+      <c r="F135" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>515</v>
+      </c>
+      <c r="B136" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" t="s">
+        <v>643</v>
+      </c>
+      <c r="D136" t="s">
+        <v>644</v>
+      </c>
+      <c r="E136" t="s">
+        <v>523</v>
+      </c>
+      <c r="F136" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>516</v>
+      </c>
+      <c r="B137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" t="s">
+        <v>645</v>
+      </c>
+      <c r="D137" t="s">
+        <v>646</v>
+      </c>
+      <c r="E137" t="s">
+        <v>524</v>
+      </c>
+      <c r="F137" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>517</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>647</v>
+      </c>
+      <c r="D138" t="s">
+        <v>648</v>
+      </c>
+      <c r="E138" t="s">
+        <v>525</v>
+      </c>
+      <c r="F138" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>518</v>
+      </c>
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" t="s">
+        <v>649</v>
+      </c>
+      <c r="D139" t="s">
+        <v>650</v>
+      </c>
+      <c r="E139" t="s">
+        <v>526</v>
+      </c>
+      <c r="F139" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -13221,10 +14336,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13240,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -13258,7 +14373,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -13272,28 +14387,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>-1254</v>
+        <v>-1614</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>-750</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -13304,28 +14419,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-636</v>
+        <v>-652</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>-750</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -13336,28 +14451,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>624</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>-108</v>
+        <v>-750</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="I4">
-        <v>0.78539999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -13368,28 +14483,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1164</v>
+        <v>1218</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>-252</v>
+        <v>-750</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="I5">
-        <v>-0.78539999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -13400,28 +14515,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>144</v>
+        <v>650</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="I6">
-        <v>2.0070999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -13432,28 +14547,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>888</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="I7">
-        <v>2.2688999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -13464,28 +14579,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>522</v>
+        <v>-652</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>438</v>
+        <v>650</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="I8">
-        <v>-2.2688999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -13496,30 +14611,62 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>294</v>
+        <v>-1650</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>-12</v>
+        <v>650</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="I9">
-        <v>-2.0070999999999999</v>
+        <v>-3.1415000000000002</v>
       </c>
       <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13531,6 +14678,317 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>-1818</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>-1254</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-636</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>624</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>-108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I4">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-252</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I5">
+        <v>-0.78539999999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>580</v>
+      </c>
+      <c r="I6">
+        <v>2.0070999999999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>888</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>636</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>581</v>
+      </c>
+      <c r="I7">
+        <v>2.2688999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>522</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>438</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>582</v>
+      </c>
+      <c r="I8">
+        <v>-2.2688999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>583</v>
+      </c>
+      <c r="I9">
+        <v>-2.0070999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -14075,7 +15533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
@@ -15472,574 +16930,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="J2:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K1" t="s">
-        <v>441</v>
-      </c>
-      <c r="L1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K3" t="s">
-        <v>451</v>
-      </c>
-      <c r="L3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" t="s">
-        <v>452</v>
-      </c>
-      <c r="L4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J5" t="s">
-        <v>302</v>
-      </c>
-      <c r="K5" t="s">
-        <v>453</v>
-      </c>
-      <c r="L5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>361</v>
-      </c>
-      <c r="J6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" t="s">
-        <v>454</v>
-      </c>
-      <c r="L6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="s">
-        <v>343</v>
-      </c>
-      <c r="G8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" t="s">
-        <v>363</v>
-      </c>
-      <c r="J8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" t="s">
-        <v>456</v>
-      </c>
-      <c r="L8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" t="s">
-        <v>364</v>
-      </c>
-      <c r="J9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9" t="s">
-        <v>457</v>
-      </c>
-      <c r="L9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="起始动作点与方向" sheetId="13" r:id="rId1"/>
@@ -10515,7 +10515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="F139" sqref="A131:F139"/>
     </sheetView>
   </sheetViews>
@@ -13443,8 +13443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="H1:J9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13498,13 +13498,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>-276</v>
+        <v>-195</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>-504</v>
+        <v>-685</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -13513,7 +13513,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>2.0943999999999998</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -13746,6 +13746,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -13513,7 +13513,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>0.74590000000000001</v>
+        <v>-0.74590000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" tabRatio="807" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="807" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="起始动作点与方向" sheetId="13" r:id="rId1"/>
@@ -13443,7 +13443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -13754,8 +13754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13765,31 +13765,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>571</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>567</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>568</v>
       </c>
       <c r="D1">
-        <v>684</v>
+        <v>1080</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>569</v>
       </c>
       <c r="F1">
-        <v>-628</v>
+        <v>-324</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="I1">
-        <v>0.78539999999999999</v>
+        <v>1.0471999999999999</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -13797,31 +13797,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>-30</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>-1116</v>
+        <v>-888</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I2">
-        <v>-8.7300000000000003E-2</v>
+        <v>0.43630000000000002</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -13832,28 +13832,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-756</v>
+        <v>-108</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>-804</v>
+        <v>-1014</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3">
-        <v>-0.78539999999999999</v>
+        <v>-0.26179999999999998</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -13864,28 +13864,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>-1008</v>
+        <v>-678</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>-192</v>
+        <v>-666</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I4">
-        <v>-1.7453000000000001</v>
+        <v>-1.0471999999999999</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -13896,28 +13896,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>-708</v>
+        <v>-900</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>558</v>
+        <v>-66</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I5">
-        <v>-2.3561999999999999</v>
+        <v>-1.5708</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -13928,28 +13928,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>-60</v>
+        <v>474</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>864</v>
+        <v>948</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I6">
-        <v>2.9670999999999998</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -13960,28 +13960,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>630</v>
+        <v>-810</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7">
-        <v>2.3561999999999999</v>
+        <v>-2.2688999999999999</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -13992,68 +13992,69 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>888</v>
+        <v>-288</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>-102</v>
+        <v>1008</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8">
-        <v>1.6580999999999999</v>
+        <v>-2.9674</v>
       </c>
       <c r="J8" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1392</v>
+        <v>1050</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>-828</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>381</v>
       </c>
       <c r="I9">
-        <v>0.82030000000000003</v>
+        <v>1.9198999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="807" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="807" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="起始动作点与方向" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="664">
   <si>
     <t>xna.Vector3</t>
   </si>
@@ -2135,6 +2135,50 @@
   </si>
   <si>
     <t>LD10,</t>
+  </si>
+  <si>
+    <t>fish2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, ref timeForPoseToPose,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[1],</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[2],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[3],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[4],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[5],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[6],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[7],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[8],</t>
+  </si>
+  <si>
+    <t>FishToPointCircle(ref decisions[9],</t>
   </si>
 </sst>
 </file>
@@ -10513,10 +10557,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F139" sqref="A131:F139"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A120" sqref="A112:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12507,19 +12551,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>511</v>
+        <v>655</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>651</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>652</v>
       </c>
       <c r="D112" t="s">
-        <v>468</v>
+        <v>653</v>
       </c>
       <c r="E112" t="s">
-        <v>519</v>
+        <v>654</v>
       </c>
       <c r="F112" t="s">
         <v>529</v>
@@ -12527,19 +12571,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>512</v>
+        <v>656</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D113" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F113" t="s">
         <v>529</v>
@@ -12547,19 +12591,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>513</v>
+        <v>657</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C114" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E114" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F114" t="s">
         <v>529</v>
@@ -12567,19 +12611,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>514</v>
+        <v>658</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E115" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F115" t="s">
         <v>529</v>
@@ -12587,19 +12631,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>515</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E116" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F116" t="s">
         <v>529</v>
@@ -12607,19 +12651,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>516</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D117" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E117" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F117" t="s">
         <v>529</v>
@@ -12627,19 +12671,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>517</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D118" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F118" t="s">
         <v>529</v>
@@ -12647,59 +12691,59 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>518</v>
+        <v>662</v>
       </c>
       <c r="B119" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C119" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D119" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F119" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>506</v>
-      </c>
-      <c r="B121" t="s">
-        <v>507</v>
-      </c>
-      <c r="C121" t="s">
-        <v>593</v>
-      </c>
-      <c r="D121" t="s">
-        <v>594</v>
-      </c>
-      <c r="E121" t="s">
-        <v>509</v>
-      </c>
-      <c r="F121" t="s">
-        <v>595</v>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>663</v>
+      </c>
+      <c r="B120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C120" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" t="s">
+        <v>482</v>
+      </c>
+      <c r="E120" t="s">
+        <v>526</v>
+      </c>
+      <c r="F120" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>507</v>
       </c>
       <c r="C122" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D122" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E122" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F122" t="s">
         <v>595</v>
@@ -12707,19 +12751,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C123" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D123" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E123" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F123" t="s">
         <v>595</v>
@@ -12727,19 +12771,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D124" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E124" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F124" t="s">
         <v>595</v>
@@ -12747,19 +12791,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D125" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E125" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F125" t="s">
         <v>595</v>
@@ -12767,19 +12811,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B126" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D126" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E126" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F126" t="s">
         <v>595</v>
@@ -12787,19 +12831,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C127" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D127" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E127" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F127" t="s">
         <v>595</v>
@@ -12807,19 +12851,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D128" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E128" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F128" t="s">
         <v>595</v>
@@ -12827,59 +12871,59 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C129" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D129" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E129" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F129" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>506</v>
-      </c>
-      <c r="B131" t="s">
-        <v>507</v>
-      </c>
-      <c r="C131" t="s">
-        <v>632</v>
-      </c>
-      <c r="D131" t="s">
-        <v>633</v>
-      </c>
-      <c r="E131" t="s">
-        <v>509</v>
-      </c>
-      <c r="F131" t="s">
-        <v>634</v>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>518</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
+        <v>610</v>
+      </c>
+      <c r="D130" t="s">
+        <v>611</v>
+      </c>
+      <c r="E130" t="s">
+        <v>526</v>
+      </c>
+      <c r="F130" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>507</v>
       </c>
       <c r="C132" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D132" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E132" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F132" t="s">
         <v>634</v>
@@ -12887,19 +12931,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B133" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D133" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E133" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F133" t="s">
         <v>634</v>
@@ -12907,19 +12951,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D134" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E134" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F134" t="s">
         <v>634</v>
@@ -12927,19 +12971,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D135" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E135" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F135" t="s">
         <v>634</v>
@@ -12947,19 +12991,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B136" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D136" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E136" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F136" t="s">
         <v>634</v>
@@ -12967,19 +13011,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D137" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F137" t="s">
         <v>634</v>
@@ -12987,19 +13031,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D138" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F138" t="s">
         <v>634</v>
@@ -13007,21 +13051,41 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>517</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>647</v>
+      </c>
+      <c r="D139" t="s">
+        <v>648</v>
+      </c>
+      <c r="E139" t="s">
+        <v>525</v>
+      </c>
+      <c r="F139" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>518</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>94</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>649</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>650</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>526</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>634</v>
       </c>
     </row>
@@ -13754,8 +13818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14340,8 +14404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H1:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14684,7 +14748,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14866,13 +14930,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1206</v>
+        <v>1296</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -14881,7 +14945,7 @@
         <v>580</v>
       </c>
       <c r="I6">
-        <v>2.0070999999999999</v>
+        <v>-1.0471999999999999</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -14898,13 +14962,13 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>888</v>
+        <v>1020</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>636</v>
+        <v>540</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -14913,7 +14977,7 @@
         <v>581</v>
       </c>
       <c r="I7">
-        <v>2.2688999999999999</v>
+        <v>-0.95989999999999998</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>

--- a/New Code.xlsx
+++ b/New Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="807" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="807" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="起始动作点与方向" sheetId="13" r:id="rId1"/>
@@ -10559,8 +10559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A120" sqref="A112:G120"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14126,8 +14126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="H1:J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14148,13 +14148,13 @@
         <v>3</v>
       </c>
       <c r="D1">
-        <v>-1500</v>
+        <v>-1272</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1">
-        <v>-900</v>
+        <v>-180</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -14163,7 +14163,7 @@
         <v>390</v>
       </c>
       <c r="I1">
-        <v>-0.52359999999999995</v>
+        <v>-2.0943999999999998</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -14180,13 +14180,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>-1500</v>
+        <v>-984</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>-300</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -14195,7 +14195,7 @@
         <v>391</v>
       </c>
       <c r="I2">
-        <v>-0.52359999999999995</v>
+        <v>-2.0943999999999998</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -14212,13 +14212,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-1500</v>
+        <v>-660</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -14227,7 +14227,7 @@
         <v>392</v>
       </c>
       <c r="I3">
-        <v>-0.52359999999999995</v>
+        <v>-2.6179999999999999</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -14244,13 +14244,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>-1500</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>900</v>
+        <v>758</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -14259,7 +14259,7 @@
         <v>393</v>
       </c>
       <c r="I4">
-        <v>-0.52359999999999995</v>
+        <v>-0.58360000000000001</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -14276,13 +14276,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1500</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>-900</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -14291,7 +14291,7 @@
         <v>394</v>
       </c>
       <c r="I5">
-        <v>2.6179999999999999</v>
+        <v>-0.87270000000000003</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -14308,13 +14308,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1500</v>
+        <v>804</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-300</v>
+        <v>-174</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -14323,7 +14323,7 @@
         <v>395</v>
       </c>
       <c r="I6">
-        <v>2.6179999999999999</v>
+        <v>-0.87270000000000003</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -14340,13 +14340,13 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1500</v>
+        <v>1212</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>-582</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -14355,7 +14355,7 @@
         <v>396</v>
       </c>
       <c r="I7">
-        <v>2.6179999999999999</v>
+        <v>-0.87270000000000003</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -14372,13 +14372,13 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>1566</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>900</v>
+        <v>-990</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -14387,7 +14387,7 @@
         <v>397</v>
       </c>
       <c r="I8">
-        <v>2.6179999999999999</v>
+        <v>-0.78539999999999999</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
